--- a/1028.xlsx
+++ b/1028.xlsx
@@ -19,8 +19,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.名稱設定'!$A$1:$E$42</definedName>
+    <definedName name="中式">'2.雙重下拉'!$B$4:$D$4</definedName>
     <definedName name="分公司">'4.Index &amp; Match'!$B$3:$B$10</definedName>
     <definedName name="考績">'4.Index &amp; Match'!$E$3:$E$10</definedName>
+    <definedName name="西式">'2.雙重下拉'!$B$5:$D$5</definedName>
     <definedName name="業務員">'4.Index &amp; Match'!$C$3:$C$10</definedName>
     <definedName name="業績">'4.Index &amp; Match'!$D$3:$D$10</definedName>
   </definedNames>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>金額</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -317,7 +319,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>丁</t>
+    <t>中式</t>
+  </si>
+  <si>
+    <t>饅頭</t>
+  </si>
+  <si>
+    <t>漢堡</t>
+  </si>
+  <si>
+    <t>土司</t>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西式</t>
+  </si>
+  <si>
+    <t>燒餅</t>
+  </si>
+  <si>
+    <t>包子</t>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -325,9 +364,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0"/>
@@ -340,7 +378,7 @@
     <numFmt numFmtId="183" formatCode="0__;@__"/>
     <numFmt numFmtId="184" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -446,6 +484,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -575,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,13 +679,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,9 +769,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -748,6 +783,28 @@
     </xf>
     <xf numFmtId="181" fontId="14" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -928,8 +985,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2082502E-A4EE-493A-998E-634D98D2E9B6}" type="CELLRANGE">
-                      <a:rPr lang="zh-TW" altLang="en-US"/>
+                    <a:fld id="{83B1384E-85B1-4CDF-B7DC-9CE5D6C98595}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -962,7 +1019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF687B55-DAFF-40DB-9658-CF46FD5A5359}" type="CELLRANGE">
+                    <a:fld id="{34402D96-6A3E-4C00-BA0C-869AB9FAD681}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -981,6 +1038,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -996,7 +1054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14031059-66BC-4DBF-B807-3831A286A428}" type="CELLRANGE">
+                    <a:fld id="{A67F487F-349F-4FD6-B75B-5846E91E8A19}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1015,6 +1073,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1030,7 +1089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52DB0F78-4EA4-47A3-A2AC-F6FFC2C944B3}" type="CELLRANGE">
+                    <a:fld id="{13E39A8B-1B21-4EBF-8A7C-74C3CC24A3B2}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1049,6 +1108,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1064,7 +1124,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE60EDFD-33AB-4335-803F-9982C80BDCDE}" type="CELLRANGE">
+                    <a:fld id="{98BD961C-DBE4-4B3B-967D-F9F9B224FCA6}" type="CELLRANGE">
                       <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1083,6 +1143,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1098,8 +1159,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28715068-98A6-4242-8734-5DF006724E2C}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                    <a:fld id="{15930227-0C94-4880-A044-EAE5118E11DB}" type="CELLRANGE">
+                      <a:rPr lang="zh-TW" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1117,6 +1178,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1173,6 +1235,7 @@
             </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
               </c:ext>
             </c:extLst>
@@ -1298,7 +1361,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.42797543233281909</c:v>
+                  <c:v>0.42797543233281909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,7 +1376,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13905764746872634</c:v>
+                  <c:v>0.13905764746872637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,9 +2135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
+      <xdr:colOff>278423</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2084,7 +2147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6059364" y="1611923"/>
-          <a:ext cx="1956289" cy="527538"/>
+          <a:ext cx="2088174" cy="556846"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2240,7 +2303,7 @@
               <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>劉明哲</a:t>
+            <a:t>陳翰松</a:t>
           </a:fld>
           <a:endParaRPr lang="zh-TW" altLang="en-US" sz="3200">
             <a:solidFill>
@@ -2579,40 +2642,40 @@
       <c r="A1" s="10"/>
       <c r="B1" s="12"/>
       <c r="C1" s="10"/>
-      <c r="D1" s="26"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="10"/>
       <c r="G1" s="13"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>1500</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="25"/>
       <c r="H3" s="2"/>
       <c r="I3" s="6"/>
       <c r="J3" s="18"/>
@@ -2622,7 +2685,7 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>3400</v>
       </c>
       <c r="H4" s="2"/>
@@ -2634,10 +2697,10 @@
       <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>2400</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="15"/>
@@ -2649,15 +2712,15 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>1800</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="25"/>
       <c r="I6" s="6"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>5600</v>
       </c>
       <c r="H7" s="13"/>
@@ -2689,12 +2752,12 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
@@ -2728,12 +2791,12 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -2974,62 +3037,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I5"/>
+  <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="2.375" style="19" customWidth="1"/>
-    <col min="8" max="9" width="9.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="62" t="s">
         <v>12</v>
       </c>
+      <c r="H5" s="62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="57">
+        <f>IFERROR(VLOOKUP(G6,$B$8:$C$13,2,FALSE),"")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="57">
+        <f t="shared" ref="H7:H19" si="0">IFERROR(VLOOKUP(G7,$B$8:$C$13,2,FALSE),"")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="57">
+        <v>10</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="57">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57">
+        <v>15</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="57">
+        <v>20</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="57">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="57">
+        <v>30</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="57">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="57">
+        <v>20</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="57">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="57">
+        <v>25</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61">
+        <f>SUM(H6:H19)</f>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F20:G20"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F19">
+      <formula1>$A$4:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G19">
+      <formula1>INDIRECT(F6)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3038,7 +3307,7 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3049,224 +3318,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="60"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="35">
         <v>74000</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="36">
         <v>89000</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="35">
+        <v>86000</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="36">
         <v>65000</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="36">
         <v>90000</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="36">
         <v>86000</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="36">
         <v>73000</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="35">
+        <v>74000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="36">
         <v>84000</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="36">
         <v>82000</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="7"/>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -3502,285 +3775,302 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N14"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="43"/>
       <c r="G2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="44">
         <v>74000</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="52" t="s">
+      <c r="E3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="53" t="s">
-        <v>35</v>
+      <c r="H3" s="50" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="47">
         <v>89000</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="52" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="51" t="str">
+      <c r="H4" s="48" t="str">
         <f>INDEX(分公司, MATCH($H$3,業務員,0))</f>
-        <v>北區</v>
+        <v>中區</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="47">
         <v>65000</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="52" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="48">
         <f>INDEX(業績, MATCH($H$3,業務員,0))</f>
-        <v>74000</v>
-      </c>
-      <c r="L5" t="s">
+        <v>90000</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="63">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="63">
         <f>-COS(K6)*0.45</f>
-        <v>-0.42797543233281909</v>
+        <v>0.42797543233281909</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="47">
         <v>90000</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="51" t="str">
+      <c r="H6" s="48" t="str">
         <f>INDEX(考績, MATCH($H$3,業務員,0))</f>
-        <v>丁</v>
-      </c>
-      <c r="I6">
+        <v>優</v>
+      </c>
+      <c r="I6" s="63">
         <f>VLOOKUP(H6,L9:N13,3,FALSE)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="63">
+        <f>180*I6</f>
+        <v>162</v>
+      </c>
+      <c r="K6" s="63">
+        <f>RADIANS(J6)</f>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="63">
+        <v>0</v>
+      </c>
+      <c r="N6" s="63">
+        <f>SIN(K6)*0.45</f>
+        <v>0.13905764746872637</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="47">
+        <v>86000</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="47">
+        <v>73000</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="47">
+        <v>84000</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="L9" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="64">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="64">
         <v>0.1</v>
       </c>
-      <c r="J6">
-        <f>180*I6</f>
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <f>RADIANS(J6)</f>
-        <v>0.31415926535897931</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>SIN(K6)*0.45</f>
-        <v>0.13905764746872634</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="50">
-        <v>86000</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="50">
-        <v>73000</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="50">
-        <v>84000</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="55">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="47">
+        <v>82000</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="L10" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="64">
         <v>0.2</v>
       </c>
-      <c r="N9" s="55">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="50">
-        <v>82000</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="L10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="55">
+      <c r="N10" s="64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L11" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="64">
         <v>0.2</v>
       </c>
-      <c r="N10" s="55">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="55">
+      <c r="N11" s="64">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="64">
         <v>0.2</v>
       </c>
-      <c r="N11" s="55">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="55">
+      <c r="N12" s="64">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L13" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="64">
         <v>0.2</v>
       </c>
-      <c r="N12" s="55">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="N13" s="55">
+      <c r="N13" s="64">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M14" s="55">
+      <c r="L14" s="63"/>
+      <c r="M14" s="64">
         <v>1</v>
       </c>
+      <c r="N14" s="63"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
